--- a/Lab_2/task1/GA_task.xlsx
+++ b/Lab_2/task1/GA_task.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/przemekkucharski/Dropbox/Dydaktyka/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MAKS_STUDIA\Semestr_1\Introduction_to_AI\Lab_2\task1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19973AE0-29DF-CA41-8606-C4DEF795344C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA8B1E1-3BC3-47B7-A2EB-40CA88241E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16240" xr2:uid="{3C72A76B-EC37-2644-ACC0-A82E789719C3}"/>
+    <workbookView xWindow="28680" yWindow="660" windowWidth="19440" windowHeight="15000" xr2:uid="{3C72A76B-EC37-2644-ACC0-A82E789719C3}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz2" sheetId="2" r:id="rId1"/>
@@ -75,8 +75,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -394,15 +395,16 @@
   <dimension ref="A1:CV13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:100" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>1</v>
-      </c>
+    <row r="1" spans="1:100" x14ac:dyDescent="0.35">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1"/>
       <c r="C1">
         <v>2</v>
       </c>
@@ -551,7 +553,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -853,7 +855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>9</v>
       </c>
@@ -1155,7 +1157,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1457,7 +1459,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1759,7 +1761,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>9</v>
       </c>
@@ -2061,7 +2063,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2363,7 +2365,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>3</v>
       </c>
@@ -2665,7 +2667,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2</v>
       </c>
@@ -2967,7 +2969,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>7</v>
       </c>
@@ -3269,7 +3271,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>6</v>
       </c>
@@ -3571,7 +3573,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>8</v>
       </c>
@@ -3873,7 +3875,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:100" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:100" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>5</v>
       </c>
@@ -4334,9 +4336,27 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABE82E39-2186-47E4-8E91-C7C5E1365475}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ABE82E39-2186-47E4-8E91-C7C5E1365475}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="614982e5-db4c-45c0-80c1-e566038eb66e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BDE116A-4146-4D09-B2E8-5A2C2B4C8B23}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BDE116A-4146-4D09-B2E8-5A2C2B4C8B23}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>